--- a/TestData/latestsite.xlsx
+++ b/TestData/latestsite.xlsx
@@ -472,7 +472,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -650,6 +650,11 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
       </patternFill>
     </fill>
   </fills>
@@ -814,9 +819,10 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1139,93 +1145,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A110"/>
+  <dimension ref="A1:B110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>96</v>
       </c>
@@ -1721,5 +1727,6 @@
     <hyperlink ref="A44" r:id="rId35"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId36"/>
 </worksheet>
 </file>